--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10205"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9907474b3756498a/Value Investing/"/>
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="970" documentId="8_{3E6443FC-40F3-4A42-9D1C-5586ED82CC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE9EEABE-1EEF-1C49-98CD-C8802204F54D}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="-33340" windowWidth="30080" windowHeight="33340" activeTab="1" xr2:uid="{0F913642-97E8-114F-99E5-2C1C00143BA5}"/>
+    <workbookView xWindow="30080" yWindow="-33340" windowWidth="30080" windowHeight="33340" firstSheet="1" activeTab="1" xr2:uid="{0F913642-97E8-114F-99E5-2C1C00143BA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,34 +95,94 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
   <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>% Revenue</t>
+  </si>
+  <si>
+    <t>COGs</t>
+  </si>
+  <si>
+    <t>% COGs</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Price</t>
   </si>
   <si>
+    <t>Data Center</t>
+  </si>
+  <si>
+    <t>AI accelerators, server CPUs, APUs, GPUs, DPUs, FPGAs, SmartNICs, Adaptive SOC</t>
+  </si>
+  <si>
     <t>Shares</t>
   </si>
   <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>CPUs, APUs for notebooks and desktops</t>
+  </si>
+  <si>
     <t>MC</t>
   </si>
   <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Discrete GPUs, semi-custom SoC for dev services (playstation, xbox)</t>
+  </si>
+  <si>
     <t>Cash</t>
   </si>
   <si>
+    <t>Embedded</t>
+  </si>
+  <si>
+    <t>Embedded CPUs, GPUs, APUs, FPGAs, SOMs, and adaptive SoC</t>
+  </si>
+  <si>
     <t>Debt</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>EV</t>
   </si>
   <si>
     <t>Net Cash</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Segments</t>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Deep HW portfolio. From data centers, CPUs, GPUs, DPUs, Smart Network Cards, FPGAs. Sells to automotive, industrial, healthcare, storage and networking.</t>
+  </si>
+  <si>
+    <t>Glossary</t>
+  </si>
+  <si>
+    <t>SmartNIC</t>
+  </si>
+  <si>
+    <t>Offloads networking, security, storage tasks from CPU. Like a HSP+NOC+DMA (but lower perf)</t>
+  </si>
+  <si>
+    <t>Adaptive SOC</t>
+  </si>
+  <si>
+    <t>Combines regular SOC and FPGA (e.g. parameterizable fabric)</t>
   </si>
   <si>
     <t>Q122</t>
@@ -170,7 +230,31 @@
     <t>Q425</t>
   </si>
   <si>
-    <t>COGs</t>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>Data Center % Revenue</t>
+  </si>
+  <si>
+    <t>Client % Revenue</t>
+  </si>
+  <si>
+    <t>Gaming % Revenue</t>
+  </si>
+  <si>
+    <t>Embedded % Revenue</t>
+  </si>
+  <si>
+    <t>Data Center Growth</t>
+  </si>
+  <si>
+    <t>Client Growth</t>
+  </si>
+  <si>
+    <t>Gaming Growth</t>
+  </si>
+  <si>
+    <t>Embedded Growth</t>
   </si>
   <si>
     <t>Gross Profit</t>
@@ -182,12 +266,12 @@
     <t>S&amp;M, G&amp;A</t>
   </si>
   <si>
+    <t>Licensing</t>
+  </si>
+  <si>
     <t>Restructure</t>
   </si>
   <si>
-    <t>Licensing</t>
-  </si>
-  <si>
     <t>Operating Expense</t>
   </si>
   <si>
@@ -200,132 +284,57 @@
     <t>Pretax Income</t>
   </si>
   <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Equity Income</t>
+  </si>
+  <si>
     <t>Net Income</t>
   </si>
   <si>
     <t>EPS</t>
   </si>
   <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Equity Income</t>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>R&amp;D Growth</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>S&amp;M, G&amp;A Growth</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
   <si>
     <t>Model NI</t>
   </si>
   <si>
-    <t>Revenue Growth</t>
-  </si>
-  <si>
-    <t>R&amp;D Growth</t>
-  </si>
-  <si>
-    <t>S&amp;M, G&amp;A Growth</t>
-  </si>
-  <si>
-    <t>Gross Margin</t>
-  </si>
-  <si>
-    <t>Operating Margin</t>
-  </si>
-  <si>
-    <t>Data Center</t>
-  </si>
-  <si>
-    <t>% Revenue</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>Embedded</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Deep HW portfolio. From data centers, CPUs, GPUs, DPUs, Smart Network Cards, FPGAs. Sells to automotive, industrial, healthcare, storage and networking.</t>
-  </si>
-  <si>
-    <t>AI accelerators, server CPUs, APUs, GPUs, DPUs, FPGAs, SmartNICs, Adaptive SOC</t>
-  </si>
-  <si>
-    <t>SmartNIC</t>
-  </si>
-  <si>
-    <t>Offloads networking, security, storage tasks from CPU. Like a HSP+NOC+DMA (but lower perf)</t>
-  </si>
-  <si>
-    <t>CPUs, APUs for notebooks and desktops</t>
-  </si>
-  <si>
-    <t>Embedded CPUs, GPUs, APUs, FPGAs, SOMs, and adaptive SoC</t>
-  </si>
-  <si>
-    <t>Adaptive SOC</t>
-  </si>
-  <si>
-    <t>Combines regular SOC and FPGA (e.g. parameterizable fabric)</t>
-  </si>
-  <si>
-    <t>Glossary</t>
-  </si>
-  <si>
-    <t>Discrete GPUs, semi-custom SoC for dev services (playstation, xbox)</t>
-  </si>
-  <si>
-    <t>% COGs</t>
-  </si>
-  <si>
-    <t>Data Center Growth</t>
-  </si>
-  <si>
-    <t>Client Growth</t>
-  </si>
-  <si>
-    <t>Gaming Growth</t>
-  </si>
-  <si>
-    <t>Embedded Growth</t>
-  </si>
-  <si>
-    <t>Data Center % Revenue</t>
-  </si>
-  <si>
-    <t>Client % Revenue</t>
-  </si>
-  <si>
-    <t>Gaming % Revenue</t>
-  </si>
-  <si>
-    <t>Embedded % Revenue</t>
-  </si>
-  <si>
-    <t>Rev</t>
-  </si>
-  <si>
     <t>Reported NI</t>
   </si>
   <si>
-    <t>ROIC</t>
-  </si>
-  <si>
-    <t>Discount Rate</t>
-  </si>
-  <si>
-    <t>Maturity</t>
-  </si>
-  <si>
     <t>D&amp;A</t>
   </si>
   <si>
@@ -365,12 +374,12 @@
     <t>Prepaids</t>
   </si>
   <si>
+    <t>Payables, related parties</t>
+  </si>
+  <si>
     <t>A/P</t>
   </si>
   <si>
-    <t>Payables, related parties</t>
-  </si>
-  <si>
     <t>Other liabilites</t>
   </si>
   <si>
@@ -387,22 +396,13 @@
   </si>
   <si>
     <t>Cash Flow</t>
-  </si>
-  <si>
-    <t>NPV</t>
-  </si>
-  <si>
-    <t>Spot</t>
-  </si>
-  <si>
-    <t>Diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,14 +465,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -940,170 +939,170 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="7" max="7" width="55.6640625" customWidth="1"/>
+    <col min="7" max="7" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
       </c>
       <c r="P3">
         <v>100.16</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17">
       <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="11">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10">
         <v>12579</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <f>C4/$C$8</f>
         <v>0.48784176847004074</v>
       </c>
       <c r="E4" s="1">
         <v>9097</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f>E4/$E$8</f>
         <v>0.46189388169586187</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="O4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P4" s="1">
         <v>1620.4770000000001</v>
       </c>
       <c r="Q4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="11">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10">
         <v>7054</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f t="shared" ref="D5:D7" si="0">C5/$C$8</f>
         <v>0.27356990498351758</v>
       </c>
       <c r="E5" s="1">
         <v>6157</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F7" si="1">E5/$E$8</f>
         <v>0.31261741558771261</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="P5" s="1">
         <f>+P4*P3</f>
         <v>162306.97632000002</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17">
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="11">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10">
         <v>2595</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>0.10063990692262943</v>
       </c>
       <c r="E6" s="1">
         <v>2305</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>0.11703478040111703</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P6" s="1">
         <f>3787+1345</f>
         <v>5132</v>
       </c>
       <c r="Q6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="11">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10">
         <v>3557</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>0.1379484196238123</v>
       </c>
       <c r="E7" s="1">
         <v>2136</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>0.10845392231530845</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="P7" s="1">
         <v>1721</v>
       </c>
       <c r="Q7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="11">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10">
         <f>SUM(C4:C7)</f>
         <v>25785</v>
       </c>
@@ -1112,51 +1111,51 @@
         <v>19695</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P8" s="1">
         <f>+P5-P6+P7</f>
         <v>158895.97632000002</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17">
       <c r="O10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="P10" s="1">
         <f>+P6-P7</f>
         <v>3411</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2">
+      <c r="B27" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1170,193 +1169,193 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AI53" sqref="AI53"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI53" sqref="AI53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="45" width="10.83203125" style="2"/>
-    <col min="46" max="46" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="71" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="45" width="10.875" style="2"/>
+    <col min="46" max="46" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="71" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4">
+    <row r="2" spans="2:71">
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3">
         <f t="shared" ref="U2:X2" si="0">+V2-1</f>
         <v>2013</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="3">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="3">
         <f t="shared" ref="X2:AC2" si="1">+Y2-1</f>
         <v>2016</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="3">
         <f t="shared" si="1"/>
         <v>2017</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="3">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="3">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="3">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="3">
         <f>+AD2-1</f>
         <v>2021</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="3">
         <v>2022</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="3">
         <f>+AD2+1</f>
         <v>2023</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="3">
         <f t="shared" ref="AF2:AQ2" si="2">+AE2+1</f>
         <v>2024</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="3">
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="3">
         <f t="shared" si="2"/>
         <v>2026</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="3">
         <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="3">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="3">
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="3">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AM2" s="3">
         <f t="shared" si="2"/>
         <v>2031</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AN2" s="3">
         <f t="shared" si="2"/>
         <v>2032</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="3">
         <f t="shared" si="2"/>
         <v>2033</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AP2" s="3">
         <f t="shared" si="2"/>
         <v>2034</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AQ2" s="3">
         <f t="shared" si="2"/>
         <v>2035</v>
       </c>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-    </row>
-    <row r="3" spans="2:71" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+    </row>
+    <row r="3" spans="2:71" s="1" customFormat="1">
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1467,9 +1466,9 @@
       <c r="BR3" s="2"/>
       <c r="BS3" s="2"/>
     </row>
-    <row r="4" spans="2:71" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:71" s="1" customFormat="1">
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1580,9 +1579,9 @@
       <c r="BR4" s="2"/>
       <c r="BS4" s="2"/>
     </row>
-    <row r="5" spans="2:71" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:71" s="1" customFormat="1">
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1693,9 +1692,9 @@
       <c r="BR5" s="2"/>
       <c r="BS5" s="2"/>
     </row>
-    <row r="6" spans="2:71" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:71" s="1" customFormat="1">
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1806,9 +1805,9 @@
       <c r="BR6" s="2"/>
       <c r="BS6" s="2"/>
     </row>
-    <row r="7" spans="2:71" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:71" s="1" customFormat="1">
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1922,7 +1921,7 @@
       <c r="BR7" s="2"/>
       <c r="BS7" s="2"/>
     </row>
-    <row r="8" spans="2:71" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:71" s="1" customFormat="1">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1993,9 +1992,9 @@
       <c r="BR8" s="2"/>
       <c r="BS8" s="2"/>
     </row>
-    <row r="9" spans="2:71" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:71" s="1" customFormat="1">
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2024,59 +2023,59 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="10">
+      <c r="AD9" s="9">
         <f>AD3/AD$7</f>
         <v>0.25604847252235075</v>
       </c>
-      <c r="AE9" s="10">
+      <c r="AE9" s="9">
         <f>AE3/AE$7</f>
         <v>0.2743243243243243</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AF9" s="9">
         <f>AF3/AF$7</f>
         <v>0.48784176847004074</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AG9" s="9">
         <f>AG3/AG$7</f>
         <v>0.58967941660971124</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AH9" s="9">
         <f t="shared" ref="AH9:AQ9" si="22">AH3/AH$7</f>
         <v>0.67531569948704495</v>
       </c>
-      <c r="AI9" s="10">
+      <c r="AI9" s="9">
         <f t="shared" si="22"/>
         <v>0.69324411534783914</v>
       </c>
-      <c r="AJ9" s="10">
+      <c r="AJ9" s="9">
         <f t="shared" si="22"/>
         <v>0.70732782547178774</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AK9" s="9">
         <f t="shared" si="22"/>
         <v>0.69048220715947195</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AL9" s="9">
         <f t="shared" si="22"/>
         <v>0.6870296108731998</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AM9" s="9">
         <f t="shared" si="22"/>
         <v>0.68251200446929272</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AN9" s="9">
         <f t="shared" si="22"/>
         <v>0.67705200701235968</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AO9" s="9">
         <f t="shared" si="22"/>
         <v>0.67075996403389293</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AP9" s="9">
         <f t="shared" si="22"/>
         <v>0.66373451582739762</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AQ9" s="9">
         <f t="shared" si="22"/>
         <v>0.65606341425897641</v>
       </c>
@@ -2109,1098 +2108,1098 @@
       <c r="BR9" s="2"/>
       <c r="BS9" s="2"/>
     </row>
-    <row r="10" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10">
+    <row r="10" spans="2:71" s="8" customFormat="1">
+      <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9">
         <f t="shared" ref="AD10" si="23">AD4/AD$7</f>
         <v>0.26274310410575824</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AE10" s="9">
         <f t="shared" ref="AE10" si="24">AE4/AE$7</f>
         <v>0.19641047297297298</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AF10" s="9">
         <f t="shared" ref="AF10" si="25">AF4/AF$7</f>
         <v>0.27356990498351758</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="9">
         <f t="shared" ref="AG10:AQ12" si="26">AG4/AG$7</f>
         <v>0.25274751852206834</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AH10" s="9">
         <f t="shared" si="26"/>
         <v>0.22123782061432029</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="AI10" s="9">
         <f t="shared" si="26"/>
         <v>0.22711128639502431</v>
       </c>
-      <c r="AJ10" s="10">
+      <c r="AJ10" s="9">
         <f t="shared" si="26"/>
         <v>0.23172520154071538</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AK10" s="9">
         <f t="shared" si="26"/>
         <v>0.25852167690029754</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="AL10" s="9">
         <f t="shared" si="26"/>
         <v>0.26947799911647963</v>
       </c>
-      <c r="AM10" s="10">
+      <c r="AM10" s="9">
         <f t="shared" si="26"/>
         <v>0.2804539357605495</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="AN10" s="9">
         <f t="shared" si="26"/>
         <v>0.29145845643819296</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="AO10" s="9">
         <f t="shared" si="26"/>
         <v>0.30249984021251558</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AP10" s="9">
         <f t="shared" si="26"/>
         <v>0.3135853790892757</v>
       </c>
-      <c r="AQ10" s="10">
+      <c r="AQ10" s="9">
         <f t="shared" si="26"/>
         <v>0.32472117421483399</v>
       </c>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-      <c r="BK10" s="10"/>
-      <c r="BL10" s="10"/>
-      <c r="BM10" s="10"/>
-      <c r="BN10" s="10"/>
-      <c r="BO10" s="10"/>
-      <c r="BP10" s="10"/>
-      <c r="BQ10" s="10"/>
-      <c r="BR10" s="10"/>
-      <c r="BS10" s="10"/>
-    </row>
-    <row r="11" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10">
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="9"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
+    </row>
+    <row r="11" spans="2:71" s="8" customFormat="1">
+      <c r="B11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9">
         <f t="shared" ref="AD11" si="27">AD5/AD$7</f>
         <v>0.28833524003220201</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AE11" s="9">
         <f t="shared" ref="AE11" si="28">AE5/AE$7</f>
         <v>0.26233108108108111</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AF11" s="9">
         <f t="shared" ref="AF11" si="29">AF5/AF$7</f>
         <v>0.10063990692262943</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="9">
         <f t="shared" si="26"/>
         <v>6.198656181502385E-2</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AH11" s="9">
         <f t="shared" si="26"/>
         <v>4.0694084526095922E-2</v>
       </c>
-      <c r="AI11" s="10">
+      <c r="AI11" s="9">
         <f t="shared" si="26"/>
         <v>3.1330829397952661E-2</v>
       </c>
-      <c r="AJ11" s="10">
+      <c r="AJ11" s="9">
         <f t="shared" si="26"/>
         <v>2.3975501851712721E-2</v>
       </c>
-      <c r="AK11" s="10">
+      <c r="AK11" s="9">
         <f t="shared" si="26"/>
         <v>2.0061004053572608E-2</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AL11" s="9">
         <f t="shared" si="26"/>
         <v>1.71091659866647E-2</v>
       </c>
-      <c r="AM11" s="10">
+      <c r="AM11" s="9">
         <f t="shared" si="26"/>
         <v>1.4568568791398609E-2</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AN11" s="9">
         <f t="shared" si="26"/>
         <v>1.2387447724528218E-2</v>
       </c>
-      <c r="AO11" s="10">
+      <c r="AO11" s="9">
         <f t="shared" si="26"/>
         <v>1.0519137889537457E-2</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AP11" s="9">
         <f t="shared" si="26"/>
         <v>8.9219673228707937E-3</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AQ11" s="9">
         <f t="shared" si="26"/>
         <v>7.5590158468098632E-3</v>
       </c>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10"/>
-      <c r="BK11" s="10"/>
-      <c r="BL11" s="10"/>
-      <c r="BM11" s="10"/>
-      <c r="BN11" s="10"/>
-      <c r="BO11" s="10"/>
-      <c r="BP11" s="10"/>
-      <c r="BQ11" s="10"/>
-      <c r="BR11" s="10"/>
-      <c r="BS11" s="10"/>
-    </row>
-    <row r="12" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10">
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="9"/>
+      <c r="BK11" s="9"/>
+      <c r="BL11" s="9"/>
+      <c r="BM11" s="9"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="9"/>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="9"/>
+    </row>
+    <row r="12" spans="2:71" s="8" customFormat="1">
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9">
         <f t="shared" ref="AD12" si="30">AD6/AD$7</f>
         <v>0.192873183339689</v>
       </c>
-      <c r="AE12" s="10">
+      <c r="AE12" s="9">
         <f t="shared" ref="AE12" si="31">AE6/AE$7</f>
         <v>0.26693412162162161</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AF12" s="9">
         <f t="shared" ref="AF12" si="32">AF6/AF$7</f>
         <v>0.1379484196238123</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AG12" s="9">
         <f t="shared" si="26"/>
         <v>9.5586503053196464E-2</v>
       </c>
-      <c r="AH12" s="10">
+      <c r="AH12" s="9">
         <f t="shared" si="26"/>
         <v>6.275239537253896E-2</v>
       </c>
-      <c r="AI12" s="10">
+      <c r="AI12" s="9">
         <f t="shared" si="26"/>
         <v>4.8313768859183946E-2</v>
       </c>
-      <c r="AJ12" s="10">
+      <c r="AJ12" s="9">
         <f t="shared" si="26"/>
         <v>3.6971471135784167E-2</v>
       </c>
-      <c r="AK12" s="10">
+      <c r="AK12" s="9">
         <f t="shared" si="26"/>
         <v>3.0935111886657995E-2</v>
       </c>
-      <c r="AL12" s="10">
+      <c r="AL12" s="9">
         <f t="shared" si="26"/>
         <v>2.6383224023655925E-2</v>
       </c>
-      <c r="AM12" s="10">
+      <c r="AM12" s="9">
         <f t="shared" si="26"/>
         <v>2.2465490978759328E-2</v>
       </c>
-      <c r="AN12" s="10">
+      <c r="AN12" s="9">
         <f t="shared" si="26"/>
         <v>1.910208882491916E-2</v>
       </c>
-      <c r="AO12" s="10">
+      <c r="AO12" s="9">
         <f t="shared" si="26"/>
         <v>1.6221057864054075E-2</v>
       </c>
-      <c r="AP12" s="10">
+      <c r="AP12" s="9">
         <f t="shared" si="26"/>
         <v>1.3758137760455815E-2</v>
       </c>
-      <c r="AQ12" s="10">
+      <c r="AQ12" s="9">
         <f t="shared" si="26"/>
         <v>1.1656395679379775E-2</v>
       </c>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
-      <c r="BF12" s="10"/>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10"/>
-      <c r="BK12" s="10"/>
-      <c r="BL12" s="10"/>
-      <c r="BM12" s="10"/>
-      <c r="BN12" s="10"/>
-      <c r="BO12" s="10"/>
-      <c r="BP12" s="10"/>
-      <c r="BQ12" s="10"/>
-      <c r="BR12" s="10"/>
-      <c r="BS12" s="10"/>
-    </row>
-    <row r="13" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
-      <c r="BF13" s="10"/>
-      <c r="BG13" s="10"/>
-      <c r="BH13" s="10"/>
-      <c r="BI13" s="10"/>
-      <c r="BJ13" s="10"/>
-      <c r="BK13" s="10"/>
-      <c r="BL13" s="10"/>
-      <c r="BM13" s="10"/>
-      <c r="BN13" s="10"/>
-      <c r="BO13" s="10"/>
-      <c r="BP13" s="10"/>
-      <c r="BQ13" s="10"/>
-      <c r="BR13" s="10"/>
-      <c r="BS13" s="10"/>
-    </row>
-    <row r="14" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10">
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+    </row>
+    <row r="13" spans="2:71" s="8" customFormat="1">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+    </row>
+    <row r="14" spans="2:71" s="8" customFormat="1">
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9">
         <f>AE3/AD3-1</f>
         <v>7.4962766837663342E-2</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14" s="9">
         <f>AF3/AE3-1</f>
         <v>0.93642241379310343</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14" s="9">
         <f t="shared" ref="AG14:AQ14" si="33">AG3/AF3-1</f>
         <v>0.57000000000000028</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AH14" s="9">
         <f t="shared" si="33"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="AI14" s="10">
+      <c r="AI14" s="9">
         <f t="shared" si="33"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AJ14" s="10">
+      <c r="AJ14" s="9">
         <f t="shared" si="33"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AK14" s="10">
+      <c r="AK14" s="9">
         <f t="shared" si="33"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AL14" s="9">
         <f t="shared" si="33"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AM14" s="9">
         <f t="shared" si="33"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AN14" s="9">
         <f t="shared" si="33"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AO14" s="9">
         <f t="shared" si="33"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AP14" s="9">
         <f t="shared" si="33"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AQ14" s="10">
+      <c r="AQ14" s="9">
         <f t="shared" si="33"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="10"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="10"/>
-      <c r="BI14" s="10"/>
-      <c r="BJ14" s="10"/>
-      <c r="BK14" s="10"/>
-      <c r="BL14" s="10"/>
-      <c r="BM14" s="10"/>
-      <c r="BN14" s="10"/>
-      <c r="BO14" s="10"/>
-      <c r="BP14" s="10"/>
-      <c r="BQ14" s="10"/>
-      <c r="BR14" s="10"/>
-      <c r="BS14" s="10"/>
-    </row>
-    <row r="15" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10">
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+    </row>
+    <row r="15" spans="2:71" s="8" customFormat="1">
+      <c r="B15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9">
         <f>AE4/AD4-1</f>
         <v>-0.24995968392194812</v>
       </c>
-      <c r="AF15" s="10">
+      <c r="AF15" s="9">
         <f>AF4/AE4-1</f>
         <v>0.51666308320791221</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AG15" s="9">
         <f t="shared" ref="AG15:AQ15" si="34">AG4/AF4-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AH15" s="9">
         <f t="shared" si="34"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AI15" s="10">
+      <c r="AI15" s="9">
         <f t="shared" si="34"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AJ15" s="10">
+      <c r="AJ15" s="9">
         <f t="shared" si="34"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AK15" s="10">
+      <c r="AK15" s="9">
         <f t="shared" si="34"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AL15" s="9">
         <f t="shared" si="34"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM15" s="10">
+      <c r="AM15" s="9">
         <f t="shared" si="34"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AN15" s="9">
         <f t="shared" si="34"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AO15" s="9">
         <f t="shared" si="34"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AP15" s="9">
         <f t="shared" si="34"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AQ15" s="10">
+      <c r="AQ15" s="9">
         <f t="shared" si="34"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="10"/>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="10"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="10"/>
-      <c r="BK15" s="10"/>
-      <c r="BL15" s="10"/>
-      <c r="BM15" s="10"/>
-      <c r="BN15" s="10"/>
-      <c r="BO15" s="10"/>
-      <c r="BP15" s="10"/>
-      <c r="BQ15" s="10"/>
-      <c r="BR15" s="10"/>
-      <c r="BS15" s="10"/>
-    </row>
-    <row r="16" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10">
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="9"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
+    </row>
+    <row r="16" spans="2:71" s="8" customFormat="1">
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9">
         <f>AE5/AD5-1</f>
         <v>-8.7141807494489298E-2</v>
       </c>
-      <c r="AF16" s="10">
+      <c r="AF16" s="9">
         <f>AF5/AE5-1</f>
         <v>-0.58226014166130069</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AG16" s="9">
         <f t="shared" ref="AG16:AQ16" si="35">AG5/AF5-1</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="AH16" s="10">
+      <c r="AH16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AI16" s="10">
+      <c r="AI16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AJ16" s="10">
+      <c r="AJ16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AK16" s="10">
+      <c r="AK16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AL16" s="10">
+      <c r="AL16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999867E-2</v>
       </c>
-      <c r="AM16" s="10">
+      <c r="AM16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AN16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AO16" s="10">
+      <c r="AO16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AP16" s="10">
+      <c r="AP16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AQ16" s="10">
+      <c r="AQ16" s="9">
         <f t="shared" si="35"/>
         <v>-9.9999999999999867E-2</v>
       </c>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="AZ16" s="10"/>
-      <c r="BA16" s="10"/>
-      <c r="BB16" s="10"/>
-      <c r="BC16" s="10"/>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
-      <c r="BK16" s="10"/>
-      <c r="BL16" s="10"/>
-      <c r="BM16" s="10"/>
-      <c r="BN16" s="10"/>
-      <c r="BO16" s="10"/>
-      <c r="BP16" s="10"/>
-      <c r="BQ16" s="10"/>
-      <c r="BR16" s="10"/>
-      <c r="BS16" s="10"/>
-    </row>
-    <row r="17" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10">
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
+    </row>
+    <row r="17" spans="2:71" s="8" customFormat="1">
+      <c r="B17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9">
         <f>AE6/AD6-1</f>
         <v>0.38862038664323384</v>
       </c>
-      <c r="AF17" s="10">
+      <c r="AF17" s="9">
         <f>AF6/AE6-1</f>
         <v>-0.4372725834519855</v>
       </c>
-      <c r="AG17" s="10">
+      <c r="AG17" s="9">
         <f t="shared" ref="AG17:AQ17" si="36">AG6/AF6-1</f>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AH17" s="10">
+      <c r="AH17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AI17" s="10">
+      <c r="AI17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999867E-2</v>
       </c>
-      <c r="AJ17" s="10">
+      <c r="AJ17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AK17" s="10">
+      <c r="AK17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AL17" s="10">
+      <c r="AL17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AM17" s="10">
+      <c r="AM17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AN17" s="10">
+      <c r="AN17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AO17" s="10">
+      <c r="AO17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AP17" s="10">
+      <c r="AP17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999867E-2</v>
       </c>
-      <c r="AQ17" s="10">
+      <c r="AQ17" s="9">
         <f t="shared" si="36"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="10"/>
-      <c r="BK17" s="10"/>
-      <c r="BL17" s="10"/>
-      <c r="BM17" s="10"/>
-      <c r="BN17" s="10"/>
-      <c r="BO17" s="10"/>
-      <c r="BP17" s="10"/>
-      <c r="BQ17" s="10"/>
-      <c r="BR17" s="10"/>
-      <c r="BS17" s="10"/>
-    </row>
-    <row r="18" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
-      <c r="BL18" s="4"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="4"/>
-      <c r="BO18" s="4"/>
-      <c r="BP18" s="4"/>
-      <c r="BQ18" s="4"/>
-      <c r="BR18" s="4"/>
-      <c r="BS18" s="4"/>
-    </row>
-    <row r="19" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
-      <c r="BL19" s="4"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="4"/>
-      <c r="BO19" s="4"/>
-      <c r="BP19" s="4"/>
-      <c r="BQ19" s="4"/>
-      <c r="BR19" s="4"/>
-      <c r="BS19" s="4"/>
-    </row>
-    <row r="20" spans="2:71" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="9"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
+    </row>
+    <row r="18" spans="2:71">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+    </row>
+    <row r="19" spans="2:71">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+    </row>
+    <row r="20" spans="2:71" s="4" customFormat="1">
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
         <v>5887</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>6550</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>5565</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>5800</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>5353</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>5359</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>5800</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>6168</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>5473</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>5835</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>6819</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>7658</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>7100</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <f>L20*1.3</f>
         <v>7585.5</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="5">
         <f>M20*1.35</f>
         <v>9205.6500000000015</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" s="5">
         <f>N20*1.35</f>
         <v>10338.300000000001</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6">
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5">
         <v>5299</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="5">
         <v>5506</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="5">
         <v>3991</v>
       </c>
-      <c r="X20" s="6">
+      <c r="X20" s="5">
         <v>4319</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="5">
         <v>5253</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="5">
         <v>6475</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="5">
         <v>6731</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="5">
         <v>9763</v>
       </c>
-      <c r="AC20" s="6">
+      <c r="AC20" s="5">
         <v>16434</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="5">
         <f>SUM(C20:F20)</f>
         <v>23802</v>
       </c>
-      <c r="AE20" s="6">
+      <c r="AE20" s="5">
         <f>SUM(G20:J20)</f>
         <v>22680</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AF20" s="5">
         <f>SUM(K20:N20)</f>
         <v>25785</v>
       </c>
@@ -3248,38 +3247,38 @@
         <f t="shared" si="37"/>
         <v>95760.672595109048</v>
       </c>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-      <c r="AT20" s="6"/>
-      <c r="AU20" s="6"/>
-      <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="6"/>
-      <c r="BH20" s="6"/>
-      <c r="BI20" s="6"/>
-      <c r="BJ20" s="6"/>
-      <c r="BK20" s="6"/>
-      <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="6"/>
-      <c r="BP20" s="6"/>
-      <c r="BQ20" s="6"/>
-      <c r="BR20" s="6"/>
-      <c r="BS20" s="6"/>
-    </row>
-    <row r="21" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BO20" s="5"/>
+      <c r="BP20" s="5"/>
+      <c r="BQ20" s="5"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+    </row>
+    <row r="21" spans="2:71">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
         <v>2883</v>
@@ -3333,42 +3332,42 @@
         <f t="shared" si="38"/>
         <v>4755.6180000000004</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="12">
         <v>3321</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="12">
         <v>3667</v>
       </c>
-      <c r="W21" s="13">
+      <c r="W21" s="12">
         <v>2911</v>
       </c>
-      <c r="X21" s="13">
+      <c r="X21" s="12">
         <v>3316</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="Y21" s="12">
         <v>3466</v>
       </c>
-      <c r="Z21" s="13">
+      <c r="Z21" s="12">
         <v>4028</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="12">
         <v>3863</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AB21" s="12">
         <v>5416</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AC21" s="12">
         <v>8505</v>
       </c>
-      <c r="AD21" s="13">
+      <c r="AD21" s="12">
         <f>SUM(C21:F21)</f>
         <v>11640</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="AE21" s="12">
         <f>SUM(G21:J21)</f>
         <v>11278</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="AF21" s="12">
         <f>SUM(K21:N21)</f>
         <v>12114</v>
       </c>
@@ -3417,9 +3416,9 @@
         <v>44049.90939375016</v>
       </c>
     </row>
-    <row r="22" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:71">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2">
         <f>+C20-C21</f>
@@ -3529,7 +3528,7 @@
         <f>+AE20-AE21</f>
         <v>11402</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="AF22" s="12">
         <f>SUM(K22:N22)</f>
         <v>13671</v>
       </c>
@@ -3578,9 +3577,9 @@
         <v>51710.763201358888</v>
       </c>
     </row>
-    <row r="23" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:71">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2">
         <v>1060</v>
@@ -3634,42 +3633,42 @@
         <f t="shared" si="42"/>
         <v>1883.2</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="12">
         <v>1201</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="12">
         <v>1072</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="12">
         <v>947</v>
       </c>
-      <c r="X23" s="13">
+      <c r="X23" s="12">
         <v>1008</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="Y23" s="12">
         <v>1196</v>
       </c>
-      <c r="Z23" s="13">
+      <c r="Z23" s="12">
         <v>1434</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="12">
         <v>1547</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="12">
         <v>1983</v>
       </c>
-      <c r="AC23" s="13">
+      <c r="AC23" s="12">
         <v>2845</v>
       </c>
-      <c r="AD23" s="13">
+      <c r="AD23" s="12">
         <f>SUM(C23:F23)</f>
         <v>5146</v>
       </c>
-      <c r="AE23" s="13">
+      <c r="AE23" s="12">
         <f>SUM(G23:J23)</f>
         <v>5872</v>
       </c>
-      <c r="AF23" s="13">
+      <c r="AF23" s="12">
         <f>SUM(K23:N23)</f>
         <v>6456</v>
       </c>
@@ -3718,9 +3717,9 @@
         <v>20132.298862619471</v>
       </c>
     </row>
-    <row r="24" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:71">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2">
         <v>597</v>
@@ -3774,42 +3773,42 @@
         <f t="shared" si="45"/>
         <v>1029.6000000000001</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="12">
         <v>674</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="12">
         <v>604</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="12">
         <v>482</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="12">
         <v>466</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="Y24" s="12">
         <v>516</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="Z24" s="12">
         <v>562</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="12">
         <v>750</v>
       </c>
-      <c r="AB24" s="13">
+      <c r="AB24" s="12">
         <v>995</v>
       </c>
-      <c r="AC24" s="13">
+      <c r="AC24" s="12">
         <v>1448</v>
       </c>
-      <c r="AD24" s="13">
+      <c r="AD24" s="12">
         <f>SUM(C24:F24)</f>
         <v>2322</v>
       </c>
-      <c r="AE24" s="13">
+      <c r="AE24" s="12">
         <f>SUM(G24:J24)</f>
         <v>2352</v>
       </c>
-      <c r="AF24" s="13">
+      <c r="AF24" s="12">
         <f>SUM(K24:N24)</f>
         <v>2783</v>
       </c>
@@ -3858,9 +3857,9 @@
         <v>12182.855494043526</v>
       </c>
     </row>
-    <row r="25" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:71">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2">
         <v>-83</v>
@@ -3910,42 +3909,42 @@
       <c r="R25" s="2">
         <v>0</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="12">
         <v>0</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="12">
         <v>0</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="12">
         <v>0</v>
       </c>
-      <c r="X25" s="13">
+      <c r="X25" s="12">
         <v>-10</v>
       </c>
-      <c r="Y25" s="13">
+      <c r="Y25" s="12">
         <v>0</v>
       </c>
-      <c r="Z25" s="13">
+      <c r="Z25" s="12">
         <v>0</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AA25" s="12">
         <v>-60</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AB25" s="12">
         <v>0</v>
       </c>
-      <c r="AC25" s="13">
+      <c r="AC25" s="12">
         <v>-12</v>
       </c>
-      <c r="AD25" s="13">
+      <c r="AD25" s="12">
         <f>SUM(C25:F25)</f>
         <v>-107</v>
       </c>
-      <c r="AE25" s="13">
+      <c r="AE25" s="12">
         <f>SUM(G25:J25)</f>
         <v>-34</v>
       </c>
-      <c r="AF25" s="13">
+      <c r="AF25" s="12">
         <f>SUM(K25:N25)</f>
         <v>-48</v>
       </c>
@@ -3983,9 +3982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:71">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -4035,45 +4034,45 @@
       <c r="R26" s="2">
         <v>0</v>
       </c>
-      <c r="U26" s="13">
+      <c r="U26" s="12">
         <f>30-48</f>
         <v>-18</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="12">
         <v>71</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="12">
         <v>129</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X26" s="12">
         <v>-88</v>
       </c>
-      <c r="Y26" s="13">
+      <c r="Y26" s="12">
         <v>-52</v>
       </c>
-      <c r="Z26" s="13">
+      <c r="Z26" s="12">
         <v>0</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="12">
         <v>0</v>
       </c>
-      <c r="AB26" s="13">
+      <c r="AB26" s="12">
         <f>SUM(A26:D26)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AC26" s="12">
         <f>SUM(B26:E26)</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="13">
+      <c r="AD26" s="12">
         <f>SUM(C26:F26)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="13">
+      <c r="AE26" s="12">
         <f>SUM(G26:J26)</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="13">
+      <c r="AF26" s="12">
         <f>SUM(K26:N26)</f>
         <v>186</v>
       </c>
@@ -4112,9 +4111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:71">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2">
         <f>SUM(C23:C26)</f>
@@ -4273,9 +4272,9 @@
         <v>32315.154356662999</v>
       </c>
     </row>
-    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:71">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ref="C28:F28" si="50">C22-C27</f>
@@ -4434,9 +4433,9 @@
         <v>19395.608844695889</v>
       </c>
     </row>
-    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:71">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2">
         <f>-13-42</f>
@@ -4502,49 +4501,49 @@
         <f t="shared" si="55"/>
         <v>25.5825</v>
       </c>
-      <c r="U29" s="13">
+      <c r="U29" s="12">
         <v>-177</v>
       </c>
-      <c r="V29" s="13">
+      <c r="V29" s="12">
         <f>-177-66</f>
         <v>-243</v>
       </c>
-      <c r="W29" s="13">
+      <c r="W29" s="12">
         <f>-160-5</f>
         <v>-165</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="12">
         <f>-156+80</f>
         <v>-76</v>
       </c>
-      <c r="Y29" s="13">
+      <c r="Y29" s="12">
         <f>-126-9</f>
         <v>-135</v>
       </c>
-      <c r="Z29" s="13">
+      <c r="Z29" s="12">
         <v>-121</v>
       </c>
-      <c r="AA29" s="13">
+      <c r="AA29" s="12">
         <f>-94-165</f>
         <v>-259</v>
       </c>
-      <c r="AB29" s="13">
+      <c r="AB29" s="12">
         <f>-47-47</f>
         <v>-94</v>
       </c>
-      <c r="AC29" s="13">
+      <c r="AC29" s="12">
         <f>-34+55</f>
         <v>21</v>
       </c>
-      <c r="AD29" s="13">
+      <c r="AD29" s="12">
         <f>SUM(C29:F29)</f>
         <v>-60</v>
       </c>
-      <c r="AE29" s="13">
+      <c r="AE29" s="12">
         <f>SUM(G29:J29)</f>
         <v>102</v>
       </c>
-      <c r="AF29" s="13">
+      <c r="AF29" s="12">
         <f>SUM(K29:N29)</f>
         <v>89</v>
       </c>
@@ -4593,9 +4592,9 @@
         <v>4479.555427624412</v>
       </c>
     </row>
-    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:71">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2">
         <f>+C28+C29</f>
@@ -4754,9 +4753,9 @@
         <v>23875.1642723203</v>
       </c>
     </row>
-    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:71">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2">
         <v>113</v>
@@ -4800,7 +4799,7 @@
       </c>
       <c r="P31" s="2">
         <f t="shared" ref="P31:R31" si="59">P30*0.2</f>
-        <v>307.09049999999996</v>
+        <v>307.09050000000002</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="59"/>
@@ -4810,48 +4809,48 @@
         <f t="shared" si="59"/>
         <v>539.0929000000001</v>
       </c>
-      <c r="U31" s="13">
+      <c r="U31" s="12">
         <v>9</v>
       </c>
-      <c r="V31" s="13">
+      <c r="V31" s="12">
         <v>5</v>
       </c>
-      <c r="W31" s="13">
+      <c r="W31" s="12">
         <v>14</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="12">
         <v>39</v>
       </c>
-      <c r="Y31" s="13">
+      <c r="Y31" s="12">
         <v>18</v>
       </c>
-      <c r="Z31" s="13">
+      <c r="Z31" s="12">
         <v>-9</v>
       </c>
-      <c r="AA31" s="13">
+      <c r="AA31" s="12">
         <v>31</v>
       </c>
-      <c r="AB31" s="13">
+      <c r="AB31" s="12">
         <v>-1210</v>
       </c>
-      <c r="AC31" s="13">
+      <c r="AC31" s="12">
         <v>513</v>
       </c>
-      <c r="AD31" s="13">
+      <c r="AD31" s="12">
         <f>SUM(C31:F31)</f>
         <v>-7</v>
       </c>
-      <c r="AE31" s="13">
+      <c r="AE31" s="12">
         <f>SUM(G31:J31)</f>
         <v>-345</v>
       </c>
-      <c r="AF31" s="13">
+      <c r="AF31" s="12">
         <f>SUM(K31:N31)</f>
         <v>381</v>
       </c>
       <c r="AG31" s="2">
         <f>SUM(O31:R31)</f>
-        <v>1573.3466000000003</v>
+        <v>1573.3466000000005</v>
       </c>
       <c r="AH31" s="2">
         <f>AH30*0.2</f>
@@ -4894,9 +4893,9 @@
         <v>4775.0328544640606</v>
       </c>
     </row>
-    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:71">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
@@ -4946,42 +4945,42 @@
       <c r="R32" s="2">
         <v>5</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="12">
         <v>0</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="12">
         <v>0</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="12">
         <v>0</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="12">
         <v>-10</v>
       </c>
-      <c r="Y32" s="13">
+      <c r="Y32" s="12">
         <v>-7</v>
       </c>
-      <c r="Z32" s="13">
+      <c r="Z32" s="12">
         <v>-2</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AA32" s="12">
         <v>0</v>
       </c>
-      <c r="AB32" s="13">
+      <c r="AB32" s="12">
         <v>5</v>
       </c>
-      <c r="AC32" s="13">
+      <c r="AC32" s="12">
         <v>6</v>
       </c>
-      <c r="AD32" s="13">
+      <c r="AD32" s="12">
         <f>SUM(C32:F32)</f>
         <v>14</v>
       </c>
-      <c r="AE32" s="13">
+      <c r="AE32" s="12">
         <f>SUM(G32:J32)</f>
         <v>16</v>
       </c>
-      <c r="AF32" s="13">
+      <c r="AF32" s="12">
         <f>SUM(K32:N32)</f>
         <v>33</v>
       </c>
@@ -5020,9 +5019,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:112" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:112">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2">
         <f>+C30-C31+C32</f>
@@ -5457,9 +5456,9 @@
         <v>2337.4403531206326</v>
       </c>
     </row>
-    <row r="34" spans="2:112" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:112">
       <c r="B34" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
         <v>1410</v>
@@ -5549,1313 +5548,1313 @@
         <v>1636.5</v>
       </c>
     </row>
-    <row r="35" spans="2:112" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="7">
+    <row r="35" spans="2:112" s="7" customFormat="1">
+      <c r="B35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="6">
         <f>+C33/C34</f>
         <v>0.8971631205673759</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <f>+D33/D34</f>
         <v>0.90073529411764708</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f>+E33/E34</f>
         <v>0.65723076923076929</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f>+F33/F34</f>
         <v>0.58870472682627384</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <f>+G33/G34</f>
         <v>0.42458100558659218</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <f>+H33/H34</f>
         <v>0.44253226797787337</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <f>+I33/I34</f>
         <v>0.58870472682627384</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <f>+J33/J34</f>
         <v>0.8058968058968059</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <f>+K33/K34</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <f>+L33/L34</f>
         <v>0.53023824068417835</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="6">
         <f>+M33/M34</f>
         <v>0.82885085574572126</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <f>+N33/N34</f>
         <v>0.65238678090575275</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="6">
         <f t="shared" ref="O35:R35" si="65">+O33/O34</f>
         <v>0.67678457772337852</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="6">
         <f t="shared" si="65"/>
         <v>0.75481150550795584</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="6">
         <f t="shared" si="65"/>
         <v>1.1094166462668305</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="6">
         <f t="shared" si="65"/>
         <v>1.3227488372093026</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7">
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6">
         <f>+U33/U34</f>
         <v>-8.6206896551724144E-2</v>
       </c>
-      <c r="V35" s="7">
+      <c r="V35" s="6">
         <f>+V33/V34</f>
         <v>-0.203125</v>
       </c>
-      <c r="W35" s="7">
+      <c r="W35" s="6">
         <f>+W33/W34</f>
         <v>-0.83908045977011492</v>
       </c>
-      <c r="X35" s="7">
+      <c r="X35" s="6">
         <f>+X33/X34</f>
         <v>-0.59640718562874251</v>
       </c>
-      <c r="Y35" s="7">
+      <c r="Y35" s="6">
         <f>+Y33/Y34</f>
         <v>-3.4663865546218489E-2</v>
       </c>
-      <c r="Z35" s="7">
+      <c r="Z35" s="6">
         <f>+Z33/Z34</f>
         <v>0.31672932330827069</v>
       </c>
-      <c r="AA35" s="7">
+      <c r="AA35" s="6">
         <f>+AA33/AA34</f>
         <v>0.30446428571428569</v>
       </c>
-      <c r="AB35" s="7">
+      <c r="AB35" s="6">
         <f>+AB33/AB34</f>
         <v>2.0629660314830156</v>
       </c>
-      <c r="AC35" s="7">
+      <c r="AC35" s="6">
         <f>+AC33/AC34</f>
         <v>2.5728234336859237</v>
       </c>
-      <c r="AD35" s="7">
+      <c r="AD35" s="6">
         <f>+AD33/AD34</f>
         <v>3.0254129606099109</v>
       </c>
-      <c r="AE35" s="7">
+      <c r="AE35" s="6">
         <f>+AE33/AE34</f>
         <v>2.2632794457274827</v>
       </c>
-      <c r="AF35" s="7">
+      <c r="AF35" s="6">
         <f>+AF33/AF34</f>
         <v>2.4656278643446381</v>
       </c>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
-      <c r="AQ35" s="7"/>
-      <c r="AR35" s="7"/>
-      <c r="AS35" s="7"/>
-      <c r="AT35" s="7"/>
-      <c r="AU35" s="7"/>
-      <c r="AV35" s="7"/>
-      <c r="AW35" s="7"/>
-      <c r="AX35" s="7"/>
-      <c r="AY35" s="7"/>
-      <c r="AZ35" s="7"/>
-      <c r="BA35" s="7"/>
-      <c r="BB35" s="7"/>
-      <c r="BC35" s="7"/>
-      <c r="BD35" s="7"/>
-      <c r="BE35" s="7"/>
-      <c r="BF35" s="7"/>
-      <c r="BG35" s="7"/>
-      <c r="BH35" s="7"/>
-      <c r="BI35" s="7"/>
-      <c r="BJ35" s="7"/>
-      <c r="BK35" s="7"/>
-      <c r="BL35" s="7"/>
-      <c r="BM35" s="7"/>
-      <c r="BN35" s="7"/>
-      <c r="BO35" s="7"/>
-      <c r="BP35" s="7"/>
-      <c r="BQ35" s="7"/>
-      <c r="BR35" s="7"/>
-      <c r="BS35" s="7"/>
-    </row>
-    <row r="36" spans="2:112" x14ac:dyDescent="0.2">
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="6"/>
+      <c r="BF35" s="6"/>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6"/>
+      <c r="BI35" s="6"/>
+      <c r="BJ35" s="6"/>
+      <c r="BK35" s="6"/>
+      <c r="BL35" s="6"/>
+      <c r="BM35" s="6"/>
+      <c r="BN35" s="6"/>
+      <c r="BO35" s="6"/>
+      <c r="BP35" s="6"/>
+      <c r="BQ35" s="6"/>
+      <c r="BR35" s="6"/>
+      <c r="BS35" s="6"/>
+    </row>
+    <row r="36" spans="2:112">
       <c r="AS36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT36" s="10">
+        <v>67</v>
+      </c>
+      <c r="AT36" s="9">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="37" spans="2:112" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10">
+    <row r="37" spans="2:112" s="8" customFormat="1">
+      <c r="B37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
         <f t="shared" ref="G37:M37" si="66">G20/C20-1</f>
         <v>-9.0708340411075228E-2</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <f t="shared" si="66"/>
         <v>-0.18183206106870231</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <f>I20/D20-1</f>
         <v>-0.1145038167938931</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <f>J20/E20-1</f>
         <v>0.10835579514824789</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <f t="shared" si="66"/>
         <v>2.2417336073230043E-2</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="9">
         <f t="shared" si="66"/>
         <v>8.882254151894009E-2</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="9">
         <f t="shared" si="66"/>
         <v>0.17568965517241386</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="9">
         <f>N20/J20-1</f>
         <v>0.24156939040207526</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="9">
         <f>O20/K20-1</f>
         <v>0.29727754430842324</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="9">
         <f>P20/L20-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q37" s="10">
+      <c r="Q37" s="9">
         <f>Q20/M20-1</f>
         <v>0.35000000000000031</v>
       </c>
-      <c r="R37" s="10">
+      <c r="R37" s="9">
         <f>R20/N20-1</f>
         <v>0.35000000000000009</v>
       </c>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10">
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9">
         <f t="shared" ref="V37" si="67">V20/U20-1</f>
         <v>3.9063974334780038E-2</v>
       </c>
-      <c r="W37" s="10">
+      <c r="W37" s="9">
         <f t="shared" ref="W37:X37" si="68">W20/V20-1</f>
         <v>-0.27515437704322554</v>
       </c>
-      <c r="X37" s="10">
+      <c r="X37" s="9">
         <f t="shared" si="68"/>
         <v>8.2184916061137647E-2</v>
       </c>
-      <c r="Y37" s="10">
+      <c r="Y37" s="9">
         <f t="shared" ref="Y37:AE37" si="69">Y20/X20-1</f>
         <v>0.21625376244501049</v>
       </c>
-      <c r="Z37" s="10">
+      <c r="Z37" s="9">
         <f t="shared" si="69"/>
         <v>0.23262897391966497</v>
       </c>
-      <c r="AA37" s="10">
+      <c r="AA37" s="9">
         <f t="shared" si="69"/>
         <v>3.9536679536679609E-2</v>
       </c>
-      <c r="AB37" s="10">
+      <c r="AB37" s="9">
         <f t="shared" si="69"/>
         <v>0.45045312732134901</v>
       </c>
-      <c r="AC37" s="10">
+      <c r="AC37" s="9">
         <f t="shared" si="69"/>
         <v>0.68329406944586712</v>
       </c>
-      <c r="AD37" s="10">
+      <c r="AD37" s="9">
         <f t="shared" si="69"/>
         <v>0.44833880978459284</v>
       </c>
-      <c r="AE37" s="10">
+      <c r="AE37" s="9">
         <f t="shared" ref="AE37:AF37" si="70">AE20/AD20-1</f>
         <v>-4.713889589110154E-2</v>
       </c>
-      <c r="AF37" s="10">
+      <c r="AF37" s="9">
         <f>AF20/AE20-1</f>
         <v>0.13690476190476186</v>
       </c>
-      <c r="AG37" s="10">
+      <c r="AG37" s="9">
         <f t="shared" ref="AG37:AQ37" si="71">AG20/AF20-1</f>
         <v>0.32749466744231159</v>
       </c>
-      <c r="AH37" s="10">
+      <c r="AH37" s="9">
         <f t="shared" si="71"/>
         <v>0.34133931745908841</v>
       </c>
-      <c r="AI37" s="10">
+      <c r="AI37" s="9">
         <f t="shared" si="71"/>
         <v>0.16896605603040959</v>
       </c>
-      <c r="AJ37" s="10">
+      <c r="AJ37" s="9">
         <f t="shared" si="71"/>
         <v>0.17610662052285897</v>
       </c>
-      <c r="AK37" s="10">
+      <c r="AK37" s="9">
         <f t="shared" si="71"/>
         <v>7.5616734282982767E-2</v>
       </c>
-      <c r="AL37" s="10">
+      <c r="AL37" s="9">
         <f t="shared" si="71"/>
         <v>5.5276666453980328E-2</v>
       </c>
-      <c r="AM37" s="10">
+      <c r="AM37" s="9">
         <f t="shared" si="71"/>
         <v>5.6950041454275846E-2</v>
       </c>
-      <c r="AN37" s="10">
+      <c r="AN37" s="9">
         <f t="shared" si="71"/>
         <v>5.8467587822504052E-2</v>
       </c>
-      <c r="AO37" s="10">
+      <c r="AO37" s="9">
         <f t="shared" si="71"/>
         <v>5.9849492339492549E-2</v>
       </c>
-      <c r="AP37" s="10">
+      <c r="AP37" s="9">
         <f t="shared" si="71"/>
         <v>6.1113962647587172E-2</v>
       </c>
-      <c r="AQ37" s="10">
+      <c r="AQ37" s="9">
         <f t="shared" si="71"/>
         <v>6.2277253191964865E-2</v>
       </c>
-      <c r="AR37" s="10"/>
-      <c r="AS37" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT37" s="10">
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT37" s="9">
         <v>0.08</v>
       </c>
-      <c r="AU37" s="10"/>
-      <c r="AV37" s="10"/>
-      <c r="AW37" s="10"/>
-      <c r="AX37" s="10"/>
-      <c r="AY37" s="10"/>
-      <c r="AZ37" s="10"/>
-      <c r="BA37" s="10"/>
-      <c r="BB37" s="10"/>
-      <c r="BC37" s="10"/>
-      <c r="BD37" s="10"/>
-      <c r="BE37" s="10"/>
-      <c r="BF37" s="10"/>
-      <c r="BG37" s="10"/>
-      <c r="BH37" s="10"/>
-      <c r="BI37" s="10"/>
-      <c r="BJ37" s="10"/>
-      <c r="BK37" s="10"/>
-      <c r="BL37" s="10"/>
-      <c r="BM37" s="10"/>
-      <c r="BN37" s="10"/>
-      <c r="BO37" s="10"/>
-      <c r="BP37" s="10"/>
-      <c r="BQ37" s="10"/>
-      <c r="BR37" s="10"/>
-      <c r="BS37" s="10"/>
-    </row>
-    <row r="38" spans="2:112" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10">
+      <c r="AU37" s="9"/>
+      <c r="AV37" s="9"/>
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="9"/>
+      <c r="AY37" s="9"/>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="9"/>
+      <c r="BB37" s="9"/>
+      <c r="BC37" s="9"/>
+      <c r="BD37" s="9"/>
+      <c r="BE37" s="9"/>
+      <c r="BF37" s="9"/>
+      <c r="BG37" s="9"/>
+      <c r="BH37" s="9"/>
+      <c r="BI37" s="9"/>
+      <c r="BJ37" s="9"/>
+      <c r="BK37" s="9"/>
+      <c r="BL37" s="9"/>
+      <c r="BM37" s="9"/>
+      <c r="BN37" s="9"/>
+      <c r="BO37" s="9"/>
+      <c r="BP37" s="9"/>
+      <c r="BQ37" s="9"/>
+      <c r="BR37" s="9"/>
+      <c r="BS37" s="9"/>
+    </row>
+    <row r="38" spans="2:112" s="8" customFormat="1">
+      <c r="B38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
         <f t="shared" ref="G38:M38" si="72">+G23/C23-1</f>
         <v>0.33113207547169821</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <f t="shared" si="72"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <f>+I23/D23-1</f>
         <v>0.15923076923076929</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <f>+J23/E23-1</f>
         <v>0.18139171227521511</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="9">
         <f t="shared" si="72"/>
         <v>8.0793763288447895E-2</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="9">
         <f t="shared" si="72"/>
         <v>9.7020097020096951E-2</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M38" s="9">
         <f t="shared" si="72"/>
         <v>8.5600530856005275E-2</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="9">
         <f>+N23/J23-1</f>
         <v>0.13302448709463932</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="9">
         <f>+O23/K23-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="9">
         <f>+P23/L23-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q38" s="10">
+      <c r="Q38" s="9">
         <f>+Q23/M23-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R38" s="9">
         <f>+R23/N23-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10">
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9">
         <f t="shared" ref="V38" si="73">V23/U23-1</f>
         <v>-0.10741049125728563</v>
       </c>
-      <c r="W38" s="10">
+      <c r="W38" s="9">
         <f t="shared" ref="W38:X38" si="74">W23/V23-1</f>
         <v>-0.11660447761194026</v>
       </c>
-      <c r="X38" s="10">
+      <c r="X38" s="9">
         <f t="shared" si="74"/>
         <v>6.4413938753959954E-2</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="Y38" s="9">
         <f t="shared" ref="Y38:AE38" si="75">Y23/X23-1</f>
         <v>0.18650793650793651</v>
       </c>
-      <c r="Z38" s="10">
+      <c r="Z38" s="9">
         <f t="shared" si="75"/>
         <v>0.19899665551839463</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AA38" s="9">
         <f t="shared" si="75"/>
         <v>7.8800557880055688E-2</v>
       </c>
-      <c r="AB38" s="10">
+      <c r="AB38" s="9">
         <f t="shared" si="75"/>
         <v>0.28183581124757606</v>
       </c>
-      <c r="AC38" s="10">
+      <c r="AC38" s="9">
         <f t="shared" si="75"/>
         <v>0.43469490670700961</v>
       </c>
-      <c r="AD38" s="10">
+      <c r="AD38" s="9">
         <f t="shared" si="75"/>
         <v>0.80878734622144122</v>
       </c>
-      <c r="AE38" s="10">
+      <c r="AE38" s="9">
         <f>AE23/AD23-1</f>
         <v>0.1410804508356005</v>
       </c>
-      <c r="AF38" s="10">
+      <c r="AF38" s="9">
         <f>AF23/AE23-1</f>
         <v>9.9455040871934575E-2</v>
       </c>
-      <c r="AG38" s="10">
+      <c r="AG38" s="9">
         <f t="shared" ref="AG38:AQ38" si="76">AG23/AF23-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AH38" s="10">
+      <c r="AH38" s="9">
         <f t="shared" ref="AH38:AQ38" si="77">AH23/AG23-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AI38" s="10">
+      <c r="AI38" s="9">
         <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AJ38" s="10">
+      <c r="AJ38" s="9">
         <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AK38" s="10">
+      <c r="AK38" s="9">
         <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL38" s="10">
+      <c r="AL38" s="9">
         <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM38" s="10">
+      <c r="AM38" s="9">
         <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AN38" s="10">
+      <c r="AN38" s="9">
         <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AO38" s="10">
+      <c r="AO38" s="9">
         <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AP38" s="10">
+      <c r="AP38" s="9">
         <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AQ38" s="10">
+      <c r="AQ38" s="9">
         <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AR38" s="10"/>
-      <c r="AS38" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT38" s="10">
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT38" s="9">
         <v>0.03</v>
       </c>
-      <c r="AU38" s="10"/>
-      <c r="AV38" s="10"/>
-      <c r="AW38" s="10"/>
-      <c r="AX38" s="10"/>
-      <c r="AY38" s="10"/>
-      <c r="AZ38" s="10"/>
-      <c r="BA38" s="10"/>
-      <c r="BB38" s="10"/>
-      <c r="BC38" s="10"/>
-      <c r="BD38" s="10"/>
-      <c r="BE38" s="10"/>
-      <c r="BF38" s="10"/>
-      <c r="BG38" s="10"/>
-      <c r="BH38" s="10"/>
-      <c r="BI38" s="10"/>
-      <c r="BJ38" s="10"/>
-      <c r="BK38" s="10"/>
-      <c r="BL38" s="10"/>
-      <c r="BM38" s="10"/>
-      <c r="BN38" s="10"/>
-      <c r="BO38" s="10"/>
-      <c r="BP38" s="10"/>
-      <c r="BQ38" s="10"/>
-      <c r="BR38" s="10"/>
-      <c r="BS38" s="10"/>
-    </row>
-    <row r="39" spans="2:112" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10">
+      <c r="AU38" s="9"/>
+      <c r="AV38" s="9"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="9"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="9"/>
+      <c r="BC38" s="9"/>
+      <c r="BD38" s="9"/>
+      <c r="BE38" s="9"/>
+      <c r="BF38" s="9"/>
+      <c r="BG38" s="9"/>
+      <c r="BH38" s="9"/>
+      <c r="BI38" s="9"/>
+      <c r="BJ38" s="9"/>
+      <c r="BK38" s="9"/>
+      <c r="BL38" s="9"/>
+      <c r="BM38" s="9"/>
+      <c r="BN38" s="9"/>
+      <c r="BO38" s="9"/>
+      <c r="BP38" s="9"/>
+      <c r="BQ38" s="9"/>
+      <c r="BR38" s="9"/>
+      <c r="BS38" s="9"/>
+    </row>
+    <row r="39" spans="2:112" s="8" customFormat="1">
+      <c r="B39" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9">
         <f t="shared" ref="G39:M39" si="78">+G24/C24-1</f>
         <v>-2.010050251256279E-2</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <f t="shared" si="78"/>
         <v>-7.6013513513513487E-2</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <f>+I24/D24-1</f>
         <v>-2.7027027027026973E-2</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <f>+J24/E24-1</f>
         <v>0.15619389587073607</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="9">
         <f t="shared" si="78"/>
         <v>5.9829059829059839E-2</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="9">
         <f t="shared" si="78"/>
         <v>0.1882998171846435</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M39" s="9">
         <f t="shared" si="78"/>
         <v>0.25173611111111116</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="9">
         <f>+N24/J24-1</f>
         <v>0.22981366459627339</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="9">
         <f>+O24/K24-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="9">
         <f>+P24/L24-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="9">
         <f>+Q24/M24-1</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="R39" s="10">
+      <c r="R39" s="9">
         <f>+R24/N24-1</f>
         <v>0.30000000000000027</v>
       </c>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10">
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9">
         <f t="shared" ref="V39" si="79">V24/U24-1</f>
         <v>-0.10385756676557867</v>
       </c>
-      <c r="W39" s="10">
+      <c r="W39" s="9">
         <f t="shared" ref="W39:X39" si="80">W24/V24-1</f>
         <v>-0.20198675496688745</v>
       </c>
-      <c r="X39" s="10">
+      <c r="X39" s="9">
         <f t="shared" si="80"/>
         <v>-3.319502074688796E-2</v>
       </c>
-      <c r="Y39" s="10">
+      <c r="Y39" s="9">
         <f t="shared" ref="Y39:AE39" si="81">Y24/X24-1</f>
         <v>0.10729613733905574</v>
       </c>
-      <c r="Z39" s="10">
+      <c r="Z39" s="9">
         <f t="shared" si="81"/>
         <v>8.9147286821705363E-2</v>
       </c>
-      <c r="AA39" s="10">
+      <c r="AA39" s="9">
         <f t="shared" si="81"/>
         <v>0.33451957295373669</v>
       </c>
-      <c r="AB39" s="10">
+      <c r="AB39" s="9">
         <f t="shared" si="81"/>
         <v>0.32666666666666666</v>
       </c>
-      <c r="AC39" s="10">
+      <c r="AC39" s="9">
         <f t="shared" si="81"/>
         <v>0.45527638190954778</v>
       </c>
-      <c r="AD39" s="10">
+      <c r="AD39" s="9">
         <f t="shared" si="81"/>
         <v>0.60359116022099446</v>
       </c>
-      <c r="AE39" s="10">
+      <c r="AE39" s="9">
         <f>AE24/AD24-1</f>
         <v>1.2919896640826822E-2</v>
       </c>
-      <c r="AF39" s="10">
+      <c r="AF39" s="9">
         <f>AF24/AE24-1</f>
         <v>0.18324829931972797</v>
       </c>
-      <c r="AG39" s="10">
+      <c r="AG39" s="9">
         <f t="shared" ref="AG39:AQ39" si="82">AG24/AF24-1</f>
         <v>0.30000000000000027</v>
       </c>
-      <c r="AH39" s="10">
+      <c r="AH39" s="9">
         <f t="shared" ref="AH39:AQ39" si="83">AH24/AG24-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AI39" s="10">
+      <c r="AI39" s="9">
         <f t="shared" si="83"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AJ39" s="10">
+      <c r="AJ39" s="9">
         <f t="shared" si="83"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AK39" s="10">
+      <c r="AK39" s="9">
         <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL39" s="10">
+      <c r="AL39" s="9">
         <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM39" s="10">
+      <c r="AM39" s="9">
         <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AN39" s="10">
+      <c r="AN39" s="9">
         <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AO39" s="10">
+      <c r="AO39" s="9">
         <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AP39" s="10">
+      <c r="AP39" s="9">
         <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AQ39" s="10">
+      <c r="AQ39" s="9">
         <f t="shared" si="83"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT39" s="14">
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT39" s="13">
         <f>NPV(AT37,AG33:DH33)</f>
         <v>172900.2230791316</v>
       </c>
-      <c r="AU39" s="10"/>
-      <c r="AV39" s="10"/>
-      <c r="AW39" s="10"/>
-      <c r="AX39" s="10"/>
-      <c r="AY39" s="10"/>
-      <c r="AZ39" s="10"/>
-      <c r="BA39" s="10"/>
-      <c r="BB39" s="10"/>
-      <c r="BC39" s="10"/>
-      <c r="BD39" s="10"/>
-      <c r="BE39" s="10"/>
-      <c r="BF39" s="10"/>
-      <c r="BG39" s="10"/>
-      <c r="BH39" s="10"/>
-      <c r="BI39" s="10"/>
-      <c r="BJ39" s="10"/>
-      <c r="BK39" s="10"/>
-      <c r="BL39" s="10"/>
-      <c r="BM39" s="10"/>
-      <c r="BN39" s="10"/>
-      <c r="BO39" s="10"/>
-      <c r="BP39" s="10"/>
-      <c r="BQ39" s="10"/>
-      <c r="BR39" s="10"/>
-      <c r="BS39" s="10"/>
-    </row>
-    <row r="40" spans="2:112" x14ac:dyDescent="0.2">
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="9"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="9"/>
+      <c r="BB39" s="9"/>
+      <c r="BC39" s="9"/>
+      <c r="BD39" s="9"/>
+      <c r="BE39" s="9"/>
+      <c r="BF39" s="9"/>
+      <c r="BG39" s="9"/>
+      <c r="BH39" s="9"/>
+      <c r="BI39" s="9"/>
+      <c r="BJ39" s="9"/>
+      <c r="BK39" s="9"/>
+      <c r="BL39" s="9"/>
+      <c r="BM39" s="9"/>
+      <c r="BN39" s="9"/>
+      <c r="BO39" s="9"/>
+      <c r="BP39" s="9"/>
+      <c r="BQ39" s="9"/>
+      <c r="BR39" s="9"/>
+      <c r="BS39" s="9"/>
+    </row>
+    <row r="40" spans="2:112">
       <c r="AS40" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AT40" s="2">
         <f>Main!P4</f>
         <v>1620.4770000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:112" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="10">
+    <row r="41" spans="2:112" s="8" customFormat="1">
+      <c r="B41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="9">
         <f t="shared" ref="C41" si="84">+C22/C20</f>
         <v>0.51027688126380155</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <f t="shared" ref="D41:N41" si="85">+D22/D20</f>
         <v>0.52442748091603053</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <f t="shared" si="85"/>
         <v>0.49703504043126684</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <f t="shared" si="85"/>
         <v>0.5098275862068965</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <f t="shared" si="85"/>
         <v>0.49766486082570521</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <f t="shared" si="85"/>
         <v>0.49542825153946629</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <f t="shared" si="85"/>
         <v>0.5098275862068965</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <f t="shared" si="85"/>
         <v>0.50680933852140075</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <f t="shared" si="85"/>
         <v>0.5097752603690846</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="9">
         <f t="shared" si="85"/>
         <v>0.53041988003427587</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M41" s="9">
         <f t="shared" si="85"/>
         <v>0.53556239917876525</v>
       </c>
-      <c r="N41" s="10">
+      <c r="N41" s="9">
         <f t="shared" si="85"/>
         <v>0.53982763123530952</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="9">
         <f t="shared" ref="O41:R41" si="86">+O22/O20</f>
         <v>0.54</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="9">
         <f t="shared" si="86"/>
         <v>0.54</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="9">
         <f t="shared" si="86"/>
         <v>0.54</v>
       </c>
-      <c r="R41" s="10">
+      <c r="R41" s="9">
         <f t="shared" ref="R41" si="87">+R22/R20</f>
         <v>0.54</v>
       </c>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10">
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9">
         <f t="shared" ref="U41" si="88">+U22/U20</f>
         <v>0.37327797697678805</v>
       </c>
-      <c r="V41" s="10">
+      <c r="V41" s="9">
         <f t="shared" ref="V41" si="89">+V22/V20</f>
         <v>0.33399927351979658</v>
       </c>
-      <c r="W41" s="10">
+      <c r="W41" s="9">
         <f t="shared" ref="V41:W41" si="90">+W22/W20</f>
         <v>0.27060886995740419</v>
       </c>
-      <c r="X41" s="10">
+      <c r="X41" s="9">
         <f t="shared" ref="X41:AD41" si="91">+X22/X20</f>
         <v>0.23222968279694373</v>
       </c>
-      <c r="Y41" s="10">
+      <c r="Y41" s="9">
         <f t="shared" si="91"/>
         <v>0.34018656006091758</v>
       </c>
-      <c r="Z41" s="10">
+      <c r="Z41" s="9">
         <f t="shared" si="91"/>
         <v>0.37791505791505792</v>
       </c>
-      <c r="AA41" s="10">
+      <c r="AA41" s="9">
         <f t="shared" si="91"/>
         <v>0.42608824840291187</v>
       </c>
-      <c r="AB41" s="10">
+      <c r="AB41" s="9">
         <f t="shared" si="91"/>
         <v>0.44525248386766364</v>
       </c>
-      <c r="AC41" s="10">
+      <c r="AC41" s="9">
         <f t="shared" si="91"/>
         <v>0.48247535596933189</v>
       </c>
-      <c r="AD41" s="10">
+      <c r="AD41" s="9">
         <f t="shared" ref="AD41" si="92">+AD22/AD20</f>
         <v>0.5109654650869675</v>
       </c>
-      <c r="AE41" s="10">
+      <c r="AE41" s="9">
         <f t="shared" ref="AE41" si="93">+AE22/AE20</f>
         <v>0.5027336860670194</v>
       </c>
-      <c r="AF41" s="10">
+      <c r="AF41" s="9">
         <f t="shared" ref="AF41:AQ41" si="94">+AF22/AF20</f>
         <v>0.53019197207678881</v>
       </c>
-      <c r="AG41" s="10">
+      <c r="AG41" s="9">
         <f t="shared" si="94"/>
         <v>0.54000000000000015</v>
       </c>
-      <c r="AH41" s="10">
+      <c r="AH41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AI41" s="10">
+      <c r="AI41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AJ41" s="10">
+      <c r="AJ41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AK41" s="10">
+      <c r="AK41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AL41" s="10">
+      <c r="AL41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AM41" s="10">
+      <c r="AM41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AN41" s="10">
+      <c r="AN41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AO41" s="10">
+      <c r="AO41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AP41" s="10">
+      <c r="AP41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AQ41" s="10">
+      <c r="AQ41" s="9">
         <f t="shared" si="94"/>
         <v>0.54</v>
       </c>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="7">
+      <c r="AR41" s="9"/>
+      <c r="AS41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT41" s="6">
         <f>+AT39/AT40</f>
         <v>106.69711639173626</v>
       </c>
-      <c r="AU41" s="10"/>
-      <c r="AV41" s="10"/>
-      <c r="AW41" s="10"/>
-      <c r="AX41" s="10"/>
-      <c r="AY41" s="10"/>
-      <c r="AZ41" s="10"/>
-      <c r="BA41" s="10"/>
-      <c r="BB41" s="10"/>
-      <c r="BC41" s="10"/>
-      <c r="BD41" s="10"/>
-      <c r="BE41" s="10"/>
-      <c r="BF41" s="10"/>
-      <c r="BG41" s="10"/>
-      <c r="BH41" s="10"/>
-      <c r="BI41" s="10"/>
-      <c r="BJ41" s="10"/>
-      <c r="BK41" s="10"/>
-      <c r="BL41" s="10"/>
-      <c r="BM41" s="10"/>
-      <c r="BN41" s="10"/>
-      <c r="BO41" s="10"/>
-      <c r="BP41" s="10"/>
-      <c r="BQ41" s="10"/>
-      <c r="BR41" s="10"/>
-      <c r="BS41" s="10"/>
-    </row>
-    <row r="42" spans="2:112" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="10">
+      <c r="AU41" s="9"/>
+      <c r="AV41" s="9"/>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="9"/>
+      <c r="AY41" s="9"/>
+      <c r="AZ41" s="9"/>
+      <c r="BA41" s="9"/>
+      <c r="BB41" s="9"/>
+      <c r="BC41" s="9"/>
+      <c r="BD41" s="9"/>
+      <c r="BE41" s="9"/>
+      <c r="BF41" s="9"/>
+      <c r="BG41" s="9"/>
+      <c r="BH41" s="9"/>
+      <c r="BI41" s="9"/>
+      <c r="BJ41" s="9"/>
+      <c r="BK41" s="9"/>
+      <c r="BL41" s="9"/>
+      <c r="BM41" s="9"/>
+      <c r="BN41" s="9"/>
+      <c r="BO41" s="9"/>
+      <c r="BP41" s="9"/>
+      <c r="BQ41" s="9"/>
+      <c r="BR41" s="9"/>
+      <c r="BS41" s="9"/>
+    </row>
+    <row r="42" spans="2:112" s="8" customFormat="1">
+      <c r="B42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="9">
         <f t="shared" ref="C42" si="95">+C28/C20</f>
         <v>0.24290810259894682</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <f t="shared" ref="D42:N42" si="96">+D28/D20</f>
         <v>0.23648854961832061</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <f t="shared" si="96"/>
         <v>0.16855345911949685</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <f t="shared" si="96"/>
         <v>0.15241379310344827</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <f t="shared" si="96"/>
         <v>0.12665794881374931</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <f t="shared" si="96"/>
         <v>0.12558313118119052</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <f t="shared" si="96"/>
         <v>0.15241379310344827</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <f t="shared" si="96"/>
         <v>0.15839818417639429</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="9">
         <f t="shared" si="96"/>
         <v>0.12022656678238626</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="9">
         <f t="shared" si="96"/>
         <v>0.14944301628106255</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M42" s="9">
         <f t="shared" si="96"/>
         <v>0.19196363103094297</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N42" s="9">
         <f t="shared" si="96"/>
         <v>0.18999738835205016</v>
       </c>
-      <c r="O42" s="10">
+      <c r="O42" s="9">
         <f t="shared" ref="O42:R42" si="97">+O28/O20</f>
         <v>0.19021126760563387</v>
       </c>
-      <c r="P42" s="10">
+      <c r="P42" s="9">
         <f t="shared" si="97"/>
         <v>0.19904686573067035</v>
       </c>
-      <c r="Q42" s="10">
+      <c r="Q42" s="9">
         <f t="shared" si="97"/>
         <v>0.24269345456323027</v>
       </c>
-      <c r="R42" s="10">
+      <c r="R42" s="9">
         <f t="shared" ref="R42" si="98">+R28/R20</f>
         <v>0.25825155006142209</v>
       </c>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10">
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9">
         <f t="shared" ref="U42" si="99">+U28/U20</f>
         <v>2.2834497074919795E-2</v>
       </c>
-      <c r="V42" s="10">
+      <c r="V42" s="9">
         <f t="shared" ref="V42" si="100">+V28/V20</f>
         <v>1.6709044678532511E-2</v>
       </c>
-      <c r="W42" s="10">
+      <c r="W42" s="9">
         <f t="shared" ref="V42:W42" si="101">+W28/W20</f>
         <v>-0.11976948133299925</v>
       </c>
-      <c r="X42" s="10">
+      <c r="X42" s="9">
         <f t="shared" ref="X42:AD42" si="102">+X28/X20</f>
         <v>-8.636258393146562E-2</v>
       </c>
-      <c r="Y42" s="10">
+      <c r="Y42" s="9">
         <f t="shared" si="102"/>
         <v>2.4176660955644393E-2</v>
       </c>
-      <c r="Z42" s="10">
+      <c r="Z42" s="9">
         <f t="shared" si="102"/>
         <v>6.9652509652509659E-2</v>
       </c>
-      <c r="AA42" s="10">
+      <c r="AA42" s="9">
         <f t="shared" si="102"/>
         <v>9.3745357302035356E-2</v>
       </c>
-      <c r="AB42" s="10">
+      <c r="AB42" s="9">
         <f t="shared" si="102"/>
         <v>0.14022329202089523</v>
       </c>
-      <c r="AC42" s="10">
+      <c r="AC42" s="9">
         <f t="shared" si="102"/>
         <v>0.22197882438846295</v>
       </c>
-      <c r="AD42" s="10">
+      <c r="AD42" s="9">
         <f t="shared" ref="AD42" si="103">+AD28/AD20</f>
         <v>0.20170573901352828</v>
       </c>
-      <c r="AE42" s="10">
+      <c r="AE42" s="9">
         <f t="shared" ref="AE42" si="104">+AE28/AE20</f>
         <v>0.1416225749559083</v>
       </c>
-      <c r="AF42" s="10">
+      <c r="AF42" s="9">
         <f t="shared" ref="AF42:AQ42" si="105">+AF28/AF20</f>
         <v>0.16653092883459375</v>
       </c>
-      <c r="AG42" s="10">
+      <c r="AG42" s="9">
         <f t="shared" si="105"/>
         <v>0.21740352240541422</v>
       </c>
-      <c r="AH42" s="10">
+      <c r="AH42" s="9">
         <f t="shared" si="105"/>
         <v>0.25948132658037171</v>
       </c>
-      <c r="AI42" s="10">
+      <c r="AI42" s="9">
         <f t="shared" si="105"/>
         <v>0.26794217605557924</v>
       </c>
-      <c r="AJ42" s="10">
+      <c r="AJ42" s="9">
         <f t="shared" si="105"/>
         <v>0.2772938331711482</v>
       </c>
-      <c r="AK42" s="10">
+      <c r="AK42" s="9">
         <f t="shared" si="105"/>
         <v>0.27133852021708094</v>
       </c>
-      <c r="AL42" s="10">
+      <c r="AL42" s="9">
         <f t="shared" si="105"/>
         <v>0.25995246634774449</v>
       </c>
-      <c r="AM42" s="10">
+      <c r="AM42" s="9">
         <f t="shared" si="105"/>
         <v>0.24854602872844725</v>
       </c>
-      <c r="AN42" s="10">
+      <c r="AN42" s="9">
         <f t="shared" si="105"/>
         <v>0.2371098859453504</v>
       </c>
-      <c r="AO42" s="10">
+      <c r="AO42" s="9">
         <f t="shared" si="105"/>
         <v>0.2256354342118323</v>
       </c>
-      <c r="AP42" s="10">
+      <c r="AP42" s="9">
         <f t="shared" si="105"/>
         <v>0.21411509551323232</v>
       </c>
-      <c r="AQ42" s="10">
+      <c r="AQ42" s="9">
         <f t="shared" si="105"/>
         <v>0.20254252940247744</v>
       </c>
-      <c r="AR42" s="10"/>
-      <c r="AS42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT42" s="7">
+      <c r="AR42" s="9"/>
+      <c r="AS42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT42" s="6">
         <f>Main!P3</f>
         <v>100.16</v>
       </c>
-      <c r="AU42" s="10"/>
-      <c r="AV42" s="10"/>
-      <c r="AW42" s="10"/>
-      <c r="AX42" s="10"/>
-      <c r="AY42" s="10"/>
-      <c r="AZ42" s="10"/>
-      <c r="BA42" s="10"/>
-      <c r="BB42" s="10"/>
-      <c r="BC42" s="10"/>
-      <c r="BD42" s="10"/>
-      <c r="BE42" s="10"/>
-      <c r="BF42" s="10"/>
-      <c r="BG42" s="10"/>
-      <c r="BH42" s="10"/>
-      <c r="BI42" s="10"/>
-      <c r="BJ42" s="10"/>
-      <c r="BK42" s="10"/>
-      <c r="BL42" s="10"/>
-      <c r="BM42" s="10"/>
-      <c r="BN42" s="10"/>
-      <c r="BO42" s="10"/>
-      <c r="BP42" s="10"/>
-      <c r="BQ42" s="10"/>
-      <c r="BR42" s="10"/>
-      <c r="BS42" s="10"/>
-    </row>
-    <row r="43" spans="2:112" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="10">
+      <c r="AU42" s="9"/>
+      <c r="AV42" s="9"/>
+      <c r="AW42" s="9"/>
+      <c r="AX42" s="9"/>
+      <c r="AY42" s="9"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="9"/>
+      <c r="BC42" s="9"/>
+      <c r="BD42" s="9"/>
+      <c r="BE42" s="9"/>
+      <c r="BF42" s="9"/>
+      <c r="BG42" s="9"/>
+      <c r="BH42" s="9"/>
+      <c r="BI42" s="9"/>
+      <c r="BJ42" s="9"/>
+      <c r="BK42" s="9"/>
+      <c r="BL42" s="9"/>
+      <c r="BM42" s="9"/>
+      <c r="BN42" s="9"/>
+      <c r="BO42" s="9"/>
+      <c r="BP42" s="9"/>
+      <c r="BQ42" s="9"/>
+      <c r="BR42" s="9"/>
+      <c r="BS42" s="9"/>
+    </row>
+    <row r="43" spans="2:112" s="8" customFormat="1">
+      <c r="B43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="9">
         <f t="shared" ref="C43" si="106">+C31/C30</f>
         <v>8.2181818181818175E-2</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <f t="shared" ref="D43:N43" si="107">+D31/D30</f>
         <v>3.5526315789473684E-2</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <f t="shared" si="107"/>
         <v>-0.14531754574811626</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <f t="shared" si="107"/>
         <v>-4.2529989094874592E-2</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <f t="shared" si="107"/>
         <v>1.8678160919540231E-2</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <f t="shared" si="107"/>
         <v>-3.3285094066570188E-2</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <f t="shared" si="107"/>
         <v>-4.2529989094874592E-2</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <f t="shared" si="107"/>
         <v>-0.29306930693069305</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="9">
         <f t="shared" si="107"/>
         <v>-7.5801749271137031E-2</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <f t="shared" si="107"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="M43" s="10">
+      <c r="M43" s="9">
         <f t="shared" si="107"/>
         <v>-2.042360060514372E-2</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="9">
         <f t="shared" si="107"/>
         <v>0.28445349626612354</v>
       </c>
-      <c r="O43" s="10">
+      <c r="O43" s="9">
         <f t="shared" ref="O43:R43" si="108">+O31/O30</f>
         <v>0.2</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43" s="9">
         <f t="shared" si="108"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="Q43" s="10">
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="Q43" s="9">
         <f t="shared" si="108"/>
         <v>0.2</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R43" s="9">
         <f t="shared" ref="R43" si="109">+R31/R30</f>
         <v>0.2</v>
       </c>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10">
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9">
         <f t="shared" ref="U43" si="110">+U31/U30</f>
         <v>-0.16071428571428573</v>
       </c>
-      <c r="V43" s="10">
+      <c r="V43" s="9">
         <f t="shared" ref="V43" si="111">+V31/V30</f>
         <v>-3.3112582781456956E-2</v>
       </c>
-      <c r="W43" s="10">
+      <c r="W43" s="9">
         <f t="shared" ref="V43:W43" si="112">+W31/W30</f>
         <v>-2.177293934681182E-2</v>
       </c>
-      <c r="X43" s="10">
+      <c r="X43" s="9">
         <f t="shared" ref="X43:AD43" si="113">+X31/X30</f>
         <v>-8.6859688195991089E-2</v>
       </c>
-      <c r="Y43" s="10">
+      <c r="Y43" s="9">
         <f t="shared" si="113"/>
         <v>-2.25</v>
       </c>
-      <c r="Z43" s="10">
+      <c r="Z43" s="9">
         <f t="shared" si="113"/>
         <v>-2.7272727272727271E-2</v>
       </c>
-      <c r="AA43" s="10">
+      <c r="AA43" s="9">
         <f t="shared" si="113"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AB43" s="10">
+      <c r="AB43" s="9">
         <f t="shared" si="113"/>
         <v>-0.94901960784313721</v>
       </c>
-      <c r="AC43" s="10">
+      <c r="AC43" s="9">
         <f t="shared" si="113"/>
         <v>0.13982011447260834</v>
       </c>
-      <c r="AD43" s="10">
+      <c r="AD43" s="9">
         <f t="shared" ref="AD43" si="114">+AD31/AD30</f>
         <v>-1.4764817549040286E-3</v>
       </c>
-      <c r="AE43" s="10">
+      <c r="AE43" s="9">
         <f t="shared" ref="AE43" si="115">+AE31/AE30</f>
         <v>-0.10410380205190102</v>
       </c>
-      <c r="AF43" s="10">
+      <c r="AF43" s="9">
         <f t="shared" ref="AF43:AQ43" si="116">+AF31/AF30</f>
         <v>8.6926762491444209E-2</v>
       </c>
-      <c r="AG43" s="10">
+      <c r="AG43" s="9">
         <f t="shared" si="116"/>
-        <v>0.20855787027801001</v>
-      </c>
-      <c r="AH43" s="10">
+        <v>0.20855787027801007</v>
+      </c>
+      <c r="AH43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AI43" s="10">
+      <c r="AI43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AJ43" s="10">
+      <c r="AJ43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AK43" s="10">
+      <c r="AK43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AL43" s="10">
+      <c r="AL43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AM43" s="10">
+      <c r="AM43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AN43" s="10">
+      <c r="AN43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AO43" s="10">
+      <c r="AO43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AP43" s="10">
+      <c r="AP43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AQ43" s="10">
+      <c r="AQ43" s="9">
         <f t="shared" si="116"/>
         <v>0.2</v>
       </c>
-      <c r="AR43" s="10"/>
-      <c r="AS43" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT43" s="10">
+      <c r="AR43" s="9"/>
+      <c r="AS43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT43" s="9">
         <f>AT41/AT42-1</f>
         <v>6.5266737137941844E-2</v>
       </c>
-      <c r="AU43" s="10"/>
-      <c r="AV43" s="10"/>
-      <c r="AW43" s="10"/>
-      <c r="AX43" s="10"/>
-      <c r="AY43" s="10"/>
-      <c r="AZ43" s="10"/>
-      <c r="BA43" s="10"/>
-      <c r="BB43" s="10"/>
-      <c r="BC43" s="10"/>
-      <c r="BD43" s="10"/>
-      <c r="BE43" s="10"/>
-      <c r="BF43" s="10"/>
-      <c r="BG43" s="10"/>
-      <c r="BH43" s="10"/>
-      <c r="BI43" s="10"/>
-      <c r="BJ43" s="10"/>
-      <c r="BK43" s="10"/>
-      <c r="BL43" s="10"/>
-      <c r="BM43" s="10"/>
-      <c r="BN43" s="10"/>
-      <c r="BO43" s="10"/>
-      <c r="BP43" s="10"/>
-      <c r="BQ43" s="10"/>
-      <c r="BR43" s="10"/>
-      <c r="BS43" s="10"/>
-    </row>
-    <row r="45" spans="2:112" x14ac:dyDescent="0.2">
-      <c r="B45" s="9" t="s">
-        <v>6</v>
+      <c r="AU43" s="9"/>
+      <c r="AV43" s="9"/>
+      <c r="AW43" s="9"/>
+      <c r="AX43" s="9"/>
+      <c r="AY43" s="9"/>
+      <c r="AZ43" s="9"/>
+      <c r="BA43" s="9"/>
+      <c r="BB43" s="9"/>
+      <c r="BC43" s="9"/>
+      <c r="BD43" s="9"/>
+      <c r="BE43" s="9"/>
+      <c r="BF43" s="9"/>
+      <c r="BG43" s="9"/>
+      <c r="BH43" s="9"/>
+      <c r="BI43" s="9"/>
+      <c r="BJ43" s="9"/>
+      <c r="BK43" s="9"/>
+      <c r="BL43" s="9"/>
+      <c r="BM43" s="9"/>
+      <c r="BN43" s="9"/>
+      <c r="BO43" s="9"/>
+      <c r="BP43" s="9"/>
+      <c r="BQ43" s="9"/>
+      <c r="BR43" s="9"/>
+      <c r="BS43" s="9"/>
+    </row>
+    <row r="45" spans="2:112">
+      <c r="B45" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="J45" s="2">
         <f>3933+1840-751-1717</f>
@@ -6912,9 +6911,9 @@
         <v>168438.6456720033</v>
       </c>
     </row>
-    <row r="47" spans="2:112" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:112">
       <c r="B47" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F47" s="2">
         <f>SUM(C33:F33)</f>
@@ -6929,9 +6928,9 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="48" spans="2:112" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:112">
       <c r="B48" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F48" s="2">
         <v>1320</v>
@@ -6943,9 +6942,9 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14">
       <c r="B49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F49" s="2">
         <v>4174</v>
@@ -6958,9 +6957,9 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14">
       <c r="B50" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F50" s="2">
         <v>1081</v>
@@ -6972,9 +6971,9 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F51" s="2">
         <v>88</v>
@@ -6986,9 +6985,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F52" s="2">
         <v>189</v>
@@ -7000,9 +6999,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14">
       <c r="B53" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -7014,9 +7013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F54" s="2">
         <v>16</v>
@@ -7028,9 +7027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14">
       <c r="B55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F55" s="2">
         <v>-1505</v>
@@ -7042,9 +7041,9 @@
         <v>-1163</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14">
       <c r="B56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F56" s="2">
         <v>62</v>
@@ -7056,9 +7055,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14">
       <c r="B57" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F57" s="2">
         <v>-14</v>
@@ -7070,9 +7069,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2">
         <v>-1091</v>
@@ -7084,9 +7083,9 @@
         <v>-1865</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F59" s="2">
         <v>-1401</v>
@@ -7098,9 +7097,9 @@
         <v>-1458</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F60" s="2">
         <v>-13</v>
@@ -7112,9 +7111,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14">
       <c r="B61" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2">
         <v>-1197</v>
@@ -7126,9 +7125,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14">
       <c r="B62" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2">
         <v>379</v>
@@ -7140,9 +7139,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14">
       <c r="B63" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2">
         <v>931</v>
@@ -7154,9 +7153,9 @@
         <v>-109</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14">
       <c r="B64" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2">
         <v>546</v>
@@ -7168,9 +7167,9 @@
         <v>883</v>
       </c>
     </row>
-    <row r="65" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:71">
       <c r="B65" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2">
         <f>SUM(F48:F64)</f>
@@ -7185,9 +7184,9 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="66" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:71">
       <c r="B66" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2">
         <v>450</v>
@@ -7199,92 +7198,92 @@
         <v>636</v>
       </c>
     </row>
-    <row r="67" spans="2:71" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6">
+    <row r="67" spans="2:71" s="4" customFormat="1">
+      <c r="B67" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
         <f>+F65-F66</f>
         <v>3115</v>
       </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5">
         <f>+J65-J66</f>
         <v>1121</v>
       </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6">
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5">
         <f>+N65-N66</f>
         <v>2405</v>
       </c>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
-      <c r="AA67" s="6"/>
-      <c r="AB67" s="6"/>
-      <c r="AC67" s="6"/>
-      <c r="AD67" s="6"/>
-      <c r="AE67" s="6"/>
-      <c r="AF67" s="6"/>
-      <c r="AG67" s="6"/>
-      <c r="AH67" s="6"/>
-      <c r="AI67" s="6"/>
-      <c r="AJ67" s="6"/>
-      <c r="AK67" s="6"/>
-      <c r="AL67" s="6"/>
-      <c r="AM67" s="6"/>
-      <c r="AN67" s="6"/>
-      <c r="AO67" s="6"/>
-      <c r="AP67" s="6"/>
-      <c r="AQ67" s="6"/>
-      <c r="AR67" s="6"/>
-      <c r="AS67" s="6"/>
-      <c r="AT67" s="6"/>
-      <c r="AU67" s="6"/>
-      <c r="AV67" s="6"/>
-      <c r="AW67" s="6"/>
-      <c r="AX67" s="6"/>
-      <c r="AY67" s="6"/>
-      <c r="AZ67" s="6"/>
-      <c r="BA67" s="6"/>
-      <c r="BB67" s="6"/>
-      <c r="BC67" s="6"/>
-      <c r="BD67" s="6"/>
-      <c r="BE67" s="6"/>
-      <c r="BF67" s="6"/>
-      <c r="BG67" s="6"/>
-      <c r="BH67" s="6"/>
-      <c r="BI67" s="6"/>
-      <c r="BJ67" s="6"/>
-      <c r="BK67" s="6"/>
-      <c r="BL67" s="6"/>
-      <c r="BM67" s="6"/>
-      <c r="BN67" s="6"/>
-      <c r="BO67" s="6"/>
-      <c r="BP67" s="6"/>
-      <c r="BQ67" s="6"/>
-      <c r="BR67" s="6"/>
-      <c r="BS67" s="6"/>
-    </row>
-    <row r="68" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="5"/>
+      <c r="AV67" s="5"/>
+      <c r="AW67" s="5"/>
+      <c r="AX67" s="5"/>
+      <c r="AY67" s="5"/>
+      <c r="AZ67" s="5"/>
+      <c r="BA67" s="5"/>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="5"/>
+      <c r="BD67" s="5"/>
+      <c r="BE67" s="5"/>
+      <c r="BF67" s="5"/>
+      <c r="BG67" s="5"/>
+      <c r="BH67" s="5"/>
+      <c r="BI67" s="5"/>
+      <c r="BJ67" s="5"/>
+      <c r="BK67" s="5"/>
+      <c r="BL67" s="5"/>
+      <c r="BM67" s="5"/>
+      <c r="BN67" s="5"/>
+      <c r="BO67" s="5"/>
+      <c r="BP67" s="5"/>
+      <c r="BQ67" s="5"/>
+      <c r="BR67" s="5"/>
+      <c r="BS67" s="5"/>
+    </row>
+    <row r="68" spans="2:71">
       <c r="B68" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2">
         <v>1999</v>
@@ -7296,9 +7295,9 @@
         <v>-1101</v>
       </c>
     </row>
-    <row r="69" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:71">
       <c r="B69" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2">
         <v>-3264</v>
@@ -7310,91 +7309,91 @@
         <v>-2062</v>
       </c>
     </row>
-    <row r="70" spans="2:71" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6">
+    <row r="70" spans="2:71" s="4" customFormat="1">
+      <c r="B70" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
         <f>+F69+F68+F65</f>
         <v>2300</v>
       </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5">
         <f>+J69+J68+J65</f>
         <v>-902</v>
       </c>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6">
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5">
         <f>+N69+N68+N65</f>
         <v>-122</v>
       </c>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
-      <c r="AA70" s="6"/>
-      <c r="AB70" s="6"/>
-      <c r="AC70" s="6"/>
-      <c r="AD70" s="6"/>
-      <c r="AE70" s="6"/>
-      <c r="AF70" s="6"/>
-      <c r="AG70" s="6"/>
-      <c r="AH70" s="6"/>
-      <c r="AI70" s="6"/>
-      <c r="AJ70" s="6"/>
-      <c r="AK70" s="6"/>
-      <c r="AL70" s="6"/>
-      <c r="AM70" s="6"/>
-      <c r="AN70" s="6"/>
-      <c r="AO70" s="6"/>
-      <c r="AP70" s="6"/>
-      <c r="AQ70" s="6"/>
-      <c r="AR70" s="6"/>
-      <c r="AS70" s="6"/>
-      <c r="AT70" s="6"/>
-      <c r="AU70" s="6"/>
-      <c r="AV70" s="6"/>
-      <c r="AW70" s="6"/>
-      <c r="AX70" s="6"/>
-      <c r="AY70" s="6"/>
-      <c r="AZ70" s="6"/>
-      <c r="BA70" s="6"/>
-      <c r="BB70" s="6"/>
-      <c r="BC70" s="6"/>
-      <c r="BD70" s="6"/>
-      <c r="BE70" s="6"/>
-      <c r="BF70" s="6"/>
-      <c r="BG70" s="6"/>
-      <c r="BH70" s="6"/>
-      <c r="BI70" s="6"/>
-      <c r="BJ70" s="6"/>
-      <c r="BK70" s="6"/>
-      <c r="BL70" s="6"/>
-      <c r="BM70" s="6"/>
-      <c r="BN70" s="6"/>
-      <c r="BO70" s="6"/>
-      <c r="BP70" s="6"/>
-      <c r="BQ70" s="6"/>
-      <c r="BR70" s="6"/>
-      <c r="BS70" s="6"/>
-    </row>
-    <row r="75" spans="2:71" x14ac:dyDescent="0.2">
-      <c r="AG75" s="4"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="5"/>
+      <c r="AS70" s="5"/>
+      <c r="AT70" s="5"/>
+      <c r="AU70" s="5"/>
+      <c r="AV70" s="5"/>
+      <c r="AW70" s="5"/>
+      <c r="AX70" s="5"/>
+      <c r="AY70" s="5"/>
+      <c r="AZ70" s="5"/>
+      <c r="BA70" s="5"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="5"/>
+      <c r="BD70" s="5"/>
+      <c r="BE70" s="5"/>
+      <c r="BF70" s="5"/>
+      <c r="BG70" s="5"/>
+      <c r="BH70" s="5"/>
+      <c r="BI70" s="5"/>
+      <c r="BJ70" s="5"/>
+      <c r="BK70" s="5"/>
+      <c r="BL70" s="5"/>
+      <c r="BM70" s="5"/>
+      <c r="BN70" s="5"/>
+      <c r="BO70" s="5"/>
+      <c r="BP70" s="5"/>
+      <c r="BQ70" s="5"/>
+      <c r="BR70" s="5"/>
+      <c r="BS70" s="5"/>
+    </row>
+    <row r="75" spans="2:71">
+      <c r="AG75" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
